--- a/企画書＆ガントチャート/ガントチャート.xlsx
+++ b/企画書＆ガントチャート/ガントチャート.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F6CF8-7E7B-459D-84F6-8F1BB019951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="詳細情報" sheetId="12" r:id="rId1"/>
@@ -26,16 +27,10 @@
     <definedName name="今日" localSheetId="3">TODAY()</definedName>
     <definedName name="今日" localSheetId="1">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -326,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1691,7 +1686,7 @@
     <cellStyle name="60% - アクセント 4" xfId="41" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 5" xfId="45" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="z_非表示_テキスト" xfId="3"/>
+    <cellStyle name="z_非表示_テキスト" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="アクセント 1" xfId="27" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="31" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="11" builtinId="37" customBuiltin="1"/>
@@ -1719,7 +1714,7 @@
     <cellStyle name="説明文" xfId="25" builtinId="53" customBuiltin="1"/>
     <cellStyle name="通貨" xfId="13" builtinId="7" customBuiltin="1"/>
     <cellStyle name="通貨 [0.00]" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="9"/>
+    <cellStyle name="日付" xfId="9" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="入力" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="良い" xfId="15" builtinId="26" customBuiltin="1"/>
@@ -2480,13 +2475,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ガントの表スタイル" pivot="0" count="4">
+    <tableStyle name="ガントの表スタイル" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="55"/>
       <tableStyleElement type="headerRow" dxfId="54"/>
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="作業リスト" pivot="0" count="9">
+    <tableStyle name="作業リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="51"/>
       <tableStyleElement type="headerRow" dxfId="50"/>
       <tableStyleElement type="totalRow" dxfId="49"/>
@@ -2635,7 +2630,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2824,8 +2819,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="B9:G36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2834,12 +2829,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="マイルストーンの説明" dataDxfId="31"/>
-    <tableColumn id="2" name="作業" dataDxfId="30"/>
-    <tableColumn id="3" name="担当者" dataDxfId="29"/>
-    <tableColumn id="4" name="進捗状況" dataDxfId="28"/>
-    <tableColumn id="5" name="開始日" dataDxfId="27" dataCellStyle="日付"/>
-    <tableColumn id="6" name="日数" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="マイルストーンの説明" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="作業" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="担当者" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="進捗状況" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="開始日" dataDxfId="27" dataCellStyle="日付"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="日数" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="作業リスト" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2851,8 +2846,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="B9:G36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2861,12 +2856,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="マイルストーンの説明" dataDxfId="15"/>
-    <tableColumn id="2" name="カテゴリ" dataDxfId="14"/>
-    <tableColumn id="3" name="担当者" dataDxfId="13"/>
-    <tableColumn id="4" name="進捗状況"/>
-    <tableColumn id="5" name="開始日" dataCellStyle="日付"/>
-    <tableColumn id="6" name="日数"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="マイルストーンの説明" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="カテゴリ" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="担当者" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="進捗状況"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="開始日" dataCellStyle="日付"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="日数"/>
   </tableColumns>
   <tableStyleInfo name="ガントの表スタイル" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2878,8 +2873,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B9:G36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2888,12 +2883,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="マイルストーンの説明" dataDxfId="2"/>
-    <tableColumn id="2" name="カテゴリ" dataDxfId="1"/>
-    <tableColumn id="3" name="担当者" dataDxfId="0"/>
-    <tableColumn id="4" name="進捗状況"/>
-    <tableColumn id="5" name="開始日" dataCellStyle="日付"/>
-    <tableColumn id="6" name="日数"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="マイルストーンの説明" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="カテゴリ" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="担当者" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="進捗状況"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="開始日" dataCellStyle="日付"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="日数"/>
   </tableColumns>
   <tableStyleInfo name="作業リスト" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3166,7 +3161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -3489,13 +3484,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3660,7 +3655,7 @@
       </c>
       <c r="C6" s="54" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[開始日])=0,TODAY(),B11(Milestones4352[開始日])),TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="49"/>
@@ -3669,7 +3664,7 @@
       <c r="H6" s="49"/>
       <c r="I6" s="56" t="str">
         <f ca="1">TEXT(I7,"m月")</f>
-        <v>10月</v>
+        <v>1月</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -3679,7 +3674,7 @@
       <c r="O6" s="56"/>
       <c r="P6" s="56" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
@@ -3699,7 +3694,7 @@
       <c r="AC6" s="56"/>
       <c r="AD6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
+        <v>2月</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -3719,7 +3714,7 @@
       <c r="AQ6" s="56"/>
       <c r="AR6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"m月")=AK6,TEXT(AR7,"m月")=AD6,TEXT(AR7,"m月")=W6,TEXT(AR7,"m月")=P6),"",TEXT(AR7,"m月"))</f>
-        <v>12月</v>
+        <v/>
       </c>
       <c r="AS6" s="56"/>
       <c r="AT6" s="56"/>
@@ -3739,7 +3734,7 @@
       <c r="BE6" s="59"/>
       <c r="BF6" s="59" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
+        <v>3月</v>
       </c>
       <c r="BG6" s="59"/>
       <c r="BH6" s="59"/>
@@ -3763,227 +3758,227 @@
       <c r="H7" s="61"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="J7" s="115">
         <f ca="1">I7+1</f>
-        <v>44863</v>
+        <v>44940</v>
       </c>
       <c r="K7" s="115">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44864</v>
+        <v>44941</v>
       </c>
       <c r="L7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44865</v>
+        <v>44942</v>
       </c>
       <c r="M7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44866</v>
+        <v>44943</v>
       </c>
       <c r="N7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44944</v>
       </c>
       <c r="O7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="P7" s="115">
         <f ca="1">O7+1</f>
-        <v>44869</v>
+        <v>44946</v>
       </c>
       <c r="Q7" s="115">
         <f ca="1">P7+1</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="R7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44948</v>
       </c>
       <c r="S7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44872</v>
+        <v>44949</v>
       </c>
       <c r="T7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44873</v>
+        <v>44950</v>
       </c>
       <c r="U7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44951</v>
       </c>
       <c r="V7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="W7" s="115">
         <f ca="1">V7+1</f>
-        <v>44876</v>
+        <v>44953</v>
       </c>
       <c r="X7" s="115">
         <f ca="1">W7+1</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="Y7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="Z7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44879</v>
+        <v>44956</v>
       </c>
       <c r="AA7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44880</v>
+        <v>44957</v>
       </c>
       <c r="AB7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44958</v>
       </c>
       <c r="AC7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="AD7" s="115">
         <f ca="1">AC7+1</f>
-        <v>44883</v>
+        <v>44960</v>
       </c>
       <c r="AE7" s="115">
         <f ca="1">AD7+1</f>
-        <v>44884</v>
+        <v>44961</v>
       </c>
       <c r="AF7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44962</v>
       </c>
       <c r="AG7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44886</v>
+        <v>44963</v>
       </c>
       <c r="AH7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44887</v>
+        <v>44964</v>
       </c>
       <c r="AI7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44965</v>
       </c>
       <c r="AJ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44966</v>
       </c>
       <c r="AK7" s="115">
         <f ca="1">AJ7+1</f>
-        <v>44890</v>
+        <v>44967</v>
       </c>
       <c r="AL7" s="115">
         <f ca="1">AK7+1</f>
-        <v>44891</v>
+        <v>44968</v>
       </c>
       <c r="AM7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44969</v>
       </c>
       <c r="AN7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44893</v>
+        <v>44970</v>
       </c>
       <c r="AO7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44894</v>
+        <v>44971</v>
       </c>
       <c r="AP7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44972</v>
       </c>
       <c r="AQ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44973</v>
       </c>
       <c r="AR7" s="115">
         <f ca="1">AQ7+1</f>
-        <v>44897</v>
+        <v>44974</v>
       </c>
       <c r="AS7" s="115">
         <f ca="1">AR7+1</f>
-        <v>44898</v>
+        <v>44975</v>
       </c>
       <c r="AT7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="AU7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44900</v>
+        <v>44977</v>
       </c>
       <c r="AV7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44901</v>
+        <v>44978</v>
       </c>
       <c r="AW7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44902</v>
+        <v>44979</v>
       </c>
       <c r="AX7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44903</v>
+        <v>44980</v>
       </c>
       <c r="AY7" s="115">
         <f ca="1">AX7+1</f>
-        <v>44904</v>
+        <v>44981</v>
       </c>
       <c r="AZ7" s="115">
         <f ca="1">AY7+1</f>
-        <v>44905</v>
+        <v>44982</v>
       </c>
       <c r="BA7" s="115">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44906</v>
+        <v>44983</v>
       </c>
       <c r="BB7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44907</v>
+        <v>44984</v>
       </c>
       <c r="BC7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44908</v>
+        <v>44985</v>
       </c>
       <c r="BD7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44909</v>
+        <v>44986</v>
       </c>
       <c r="BE7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44910</v>
+        <v>44987</v>
       </c>
       <c r="BF7" s="115">
         <f ca="1">BE7+1</f>
-        <v>44911</v>
+        <v>44988</v>
       </c>
       <c r="BG7" s="115">
         <f ca="1">BF7+1</f>
-        <v>44912</v>
+        <v>44989</v>
       </c>
       <c r="BH7" s="115">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44913</v>
+        <v>44990</v>
       </c>
       <c r="BI7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44914</v>
+        <v>44991</v>
       </c>
       <c r="BJ7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44915</v>
+        <v>44992</v>
       </c>
       <c r="BK7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="BL7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44917</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4615,7 +4610,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="G12" s="70">
         <v>0</v>
@@ -5102,7 +5097,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44859</v>
+        <v>44936</v>
       </c>
       <c r="G14" s="70">
         <v>0</v>
@@ -5324,7 +5319,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="G15" s="70">
         <v>0</v>
@@ -5548,7 +5543,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G16" s="70">
         <v>0</v>
@@ -6031,7 +6026,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G18" s="70">
         <v>0</v>
@@ -6276,7 +6271,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="G19" s="70">
         <v>0</v>
@@ -6521,7 +6516,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="G20" s="70">
         <v>0</v>
@@ -6764,7 +6759,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="G21" s="70">
         <v>0</v>
@@ -7005,7 +7000,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="G22" s="70">
         <v>0</v>
@@ -8218,7 +8213,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="G27" s="70">
         <v>0</v>
@@ -8461,7 +8456,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G28" s="70">
         <v>0</v>
@@ -10468,25 +10463,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -10599,7 +10594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10917,7 +10912,7 @@
       </c>
       <c r="C6" s="91" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[開始日])=0,TODAY(),B11(Milestones435[開始日])),TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="18"/>
@@ -10926,7 +10921,7 @@
       <c r="H6" s="86"/>
       <c r="I6" s="93" t="str">
         <f ca="1">TEXT(I7,"m月")</f>
-        <v>10月</v>
+        <v>1月</v>
       </c>
       <c r="J6" s="93"/>
       <c r="K6" s="93"/>
@@ -10936,7 +10931,7 @@
       <c r="O6" s="93"/>
       <c r="P6" s="93" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="Q6" s="93"/>
       <c r="R6" s="93"/>
@@ -10956,7 +10951,7 @@
       <c r="AC6" s="93"/>
       <c r="AD6" s="93" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
+        <v>2月</v>
       </c>
       <c r="AE6" s="93"/>
       <c r="AF6" s="93"/>
@@ -10976,7 +10971,7 @@
       <c r="AQ6" s="93"/>
       <c r="AR6" s="93" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"m月")=AK6,TEXT(AR7,"m月")=AD6,TEXT(AR7,"m月")=W6,TEXT(AR7,"m月")=P6),"",TEXT(AR7,"m月"))</f>
-        <v>12月</v>
+        <v/>
       </c>
       <c r="AS6" s="93"/>
       <c r="AT6" s="93"/>
@@ -10996,7 +10991,7 @@
       <c r="BE6" s="95"/>
       <c r="BF6" s="95" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
+        <v>3月</v>
       </c>
       <c r="BG6" s="95"/>
       <c r="BH6" s="95"/>
@@ -11021,227 +11016,227 @@
       <c r="H7" s="86"/>
       <c r="I7" s="122">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="J7" s="123">
         <f ca="1">I7+1</f>
-        <v>44863</v>
+        <v>44940</v>
       </c>
       <c r="K7" s="123">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44864</v>
+        <v>44941</v>
       </c>
       <c r="L7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44865</v>
+        <v>44942</v>
       </c>
       <c r="M7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44866</v>
+        <v>44943</v>
       </c>
       <c r="N7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44944</v>
       </c>
       <c r="O7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="P7" s="123">
         <f ca="1">O7+1</f>
-        <v>44869</v>
+        <v>44946</v>
       </c>
       <c r="Q7" s="123">
         <f ca="1">P7+1</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="R7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44948</v>
       </c>
       <c r="S7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44872</v>
+        <v>44949</v>
       </c>
       <c r="T7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44873</v>
+        <v>44950</v>
       </c>
       <c r="U7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44951</v>
       </c>
       <c r="V7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="W7" s="123">
         <f ca="1">V7+1</f>
-        <v>44876</v>
+        <v>44953</v>
       </c>
       <c r="X7" s="123">
         <f ca="1">W7+1</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="Y7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="Z7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44879</v>
+        <v>44956</v>
       </c>
       <c r="AA7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44880</v>
+        <v>44957</v>
       </c>
       <c r="AB7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44958</v>
       </c>
       <c r="AC7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="AD7" s="123">
         <f ca="1">AC7+1</f>
-        <v>44883</v>
+        <v>44960</v>
       </c>
       <c r="AE7" s="123">
         <f ca="1">AD7+1</f>
-        <v>44884</v>
+        <v>44961</v>
       </c>
       <c r="AF7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44962</v>
       </c>
       <c r="AG7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44886</v>
+        <v>44963</v>
       </c>
       <c r="AH7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44887</v>
+        <v>44964</v>
       </c>
       <c r="AI7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44965</v>
       </c>
       <c r="AJ7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44966</v>
       </c>
       <c r="AK7" s="123">
         <f ca="1">AJ7+1</f>
-        <v>44890</v>
+        <v>44967</v>
       </c>
       <c r="AL7" s="123">
         <f ca="1">AK7+1</f>
-        <v>44891</v>
+        <v>44968</v>
       </c>
       <c r="AM7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44969</v>
       </c>
       <c r="AN7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44893</v>
+        <v>44970</v>
       </c>
       <c r="AO7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44894</v>
+        <v>44971</v>
       </c>
       <c r="AP7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44972</v>
       </c>
       <c r="AQ7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44973</v>
       </c>
       <c r="AR7" s="123">
         <f ca="1">AQ7+1</f>
-        <v>44897</v>
+        <v>44974</v>
       </c>
       <c r="AS7" s="123">
         <f ca="1">AR7+1</f>
-        <v>44898</v>
+        <v>44975</v>
       </c>
       <c r="AT7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="AU7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44900</v>
+        <v>44977</v>
       </c>
       <c r="AV7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44901</v>
+        <v>44978</v>
       </c>
       <c r="AW7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44902</v>
+        <v>44979</v>
       </c>
       <c r="AX7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44903</v>
+        <v>44980</v>
       </c>
       <c r="AY7" s="123">
         <f ca="1">AX7+1</f>
-        <v>44904</v>
+        <v>44981</v>
       </c>
       <c r="AZ7" s="123">
         <f ca="1">AY7+1</f>
-        <v>44905</v>
+        <v>44982</v>
       </c>
       <c r="BA7" s="123">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44906</v>
+        <v>44983</v>
       </c>
       <c r="BB7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44907</v>
+        <v>44984</v>
       </c>
       <c r="BC7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44908</v>
+        <v>44985</v>
       </c>
       <c r="BD7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44909</v>
+        <v>44986</v>
       </c>
       <c r="BE7" s="124">
         <f t="shared" ca="1" si="1"/>
-        <v>44910</v>
+        <v>44987</v>
       </c>
       <c r="BF7" s="123">
         <f ca="1">BE7+1</f>
-        <v>44911</v>
+        <v>44988</v>
       </c>
       <c r="BG7" s="123">
         <f ca="1">BF7+1</f>
-        <v>44912</v>
+        <v>44989</v>
       </c>
       <c r="BH7" s="123">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44913</v>
+        <v>44990</v>
       </c>
       <c r="BI7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44914</v>
+        <v>44991</v>
       </c>
       <c r="BJ7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44915</v>
+        <v>44992</v>
       </c>
       <c r="BK7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="BL7" s="125">
         <f t="shared" ca="1" si="2"/>
-        <v>44917</v>
+        <v>44994</v>
       </c>
       <c r="BM7" s="18"/>
     </row>
@@ -11879,7 +11874,7 @@
       </c>
       <c r="F12" s="104">
         <f ca="1">TODAY()</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="G12" s="105">
         <v>3</v>
@@ -12123,7 +12118,7 @@
       <c r="E13" s="103"/>
       <c r="F13" s="104">
         <f ca="1">TODAY()+5</f>
-        <v>44867</v>
+        <v>44944</v>
       </c>
       <c r="G13" s="105">
         <v>1</v>
@@ -12369,7 +12364,7 @@
       </c>
       <c r="F14" s="104">
         <f ca="1">F12-3</f>
-        <v>44859</v>
+        <v>44936</v>
       </c>
       <c r="G14" s="105">
         <v>10</v>
@@ -12613,7 +12608,7 @@
       <c r="E15" s="103"/>
       <c r="F15" s="104">
         <f ca="1">F12+20</f>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="G15" s="105">
         <v>1</v>
@@ -12859,7 +12854,7 @@
       </c>
       <c r="F16" s="104">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G16" s="105">
         <v>6</v>
@@ -13342,7 +13337,7 @@
       </c>
       <c r="F18" s="104">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G18" s="105">
         <v>13</v>
@@ -13588,7 +13583,7 @@
       </c>
       <c r="F19" s="104">
         <f ca="1">F18+2</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="G19" s="105">
         <v>9</v>
@@ -13834,7 +13829,7 @@
       </c>
       <c r="F20" s="104">
         <f ca="1">F19+5</f>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="G20" s="105">
         <v>11</v>
@@ -14078,7 +14073,7 @@
       <c r="E21" s="103"/>
       <c r="F21" s="104">
         <f ca="1">F20+2</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="G21" s="105">
         <v>1</v>
@@ -14320,7 +14315,7 @@
       <c r="E22" s="103"/>
       <c r="F22" s="104">
         <f ca="1">F21+1</f>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="G22" s="105">
         <v>24</v>
@@ -14801,7 +14796,7 @@
       <c r="E24" s="103"/>
       <c r="F24" s="104">
         <f ca="1">F12+15</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="G24" s="105">
         <v>4</v>
@@ -15045,7 +15040,7 @@
       <c r="E25" s="103"/>
       <c r="F25" s="104">
         <f ca="1">F24+3</f>
-        <v>44880</v>
+        <v>44957</v>
       </c>
       <c r="G25" s="105">
         <v>14</v>
@@ -15289,7 +15284,7 @@
       <c r="E26" s="103"/>
       <c r="F26" s="104">
         <f ca="1">F25+15</f>
-        <v>44895</v>
+        <v>44972</v>
       </c>
       <c r="G26" s="105">
         <v>6</v>
@@ -15533,7 +15528,7 @@
       <c r="E27" s="103"/>
       <c r="F27" s="104">
         <f ca="1">F21+22</f>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="G27" s="105">
         <v>3</v>
@@ -15777,7 +15772,7 @@
       <c r="E28" s="103"/>
       <c r="F28" s="104">
         <f ca="1">F16</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G28" s="105">
         <v>19</v>
@@ -16256,7 +16251,7 @@
       <c r="E30" s="103"/>
       <c r="F30" s="104">
         <f ca="1">F27+3</f>
-        <v>44902</v>
+        <v>44979</v>
       </c>
       <c r="G30" s="105">
         <v>15</v>
@@ -16498,7 +16493,7 @@
       <c r="E31" s="103"/>
       <c r="F31" s="104">
         <f ca="1">F30+14</f>
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="G31" s="105">
         <v>5</v>
@@ -16742,7 +16737,7 @@
       <c r="E32" s="103"/>
       <c r="F32" s="104">
         <f ca="1">F31+42</f>
-        <v>44958</v>
+        <v>45035</v>
       </c>
       <c r="G32" s="105">
         <v>1</v>
@@ -17824,25 +17819,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4" xr:uid="{00000000-0002-0000-0200-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2" xr:uid="{00000000-0002-0000-0200-00000C000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -17955,7 +17950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18124,7 +18119,7 @@
       </c>
       <c r="C6" s="54" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[開始日])=0,TODAY(),B11(Milestones43524[開始日])),TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="49"/>
@@ -18133,7 +18128,7 @@
       <c r="H6" s="49"/>
       <c r="I6" s="56" t="str">
         <f ca="1">TEXT(I7,"m月")</f>
-        <v>10月</v>
+        <v>1月</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -18143,7 +18138,7 @@
       <c r="O6" s="56"/>
       <c r="P6" s="56" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
@@ -18163,7 +18158,7 @@
       <c r="AC6" s="56"/>
       <c r="AD6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
+        <v>2月</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -18183,7 +18178,7 @@
       <c r="AQ6" s="56"/>
       <c r="AR6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"m月")=AK6,TEXT(AR7,"m月")=AD6,TEXT(AR7,"m月")=W6,TEXT(AR7,"m月")=P6),"",TEXT(AR7,"m月"))</f>
-        <v>12月</v>
+        <v/>
       </c>
       <c r="AS6" s="56"/>
       <c r="AT6" s="56"/>
@@ -18203,7 +18198,7 @@
       <c r="BE6" s="59"/>
       <c r="BF6" s="59" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
+        <v>3月</v>
       </c>
       <c r="BG6" s="59"/>
       <c r="BH6" s="59"/>
@@ -18227,227 +18222,227 @@
       <c r="H7" s="61"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="J7" s="115">
         <f ca="1">I7+1</f>
-        <v>44863</v>
+        <v>44940</v>
       </c>
       <c r="K7" s="115">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44864</v>
+        <v>44941</v>
       </c>
       <c r="L7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44865</v>
+        <v>44942</v>
       </c>
       <c r="M7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44866</v>
+        <v>44943</v>
       </c>
       <c r="N7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44944</v>
       </c>
       <c r="O7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="P7" s="115">
         <f ca="1">O7+1</f>
-        <v>44869</v>
+        <v>44946</v>
       </c>
       <c r="Q7" s="115">
         <f ca="1">P7+1</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="R7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44948</v>
       </c>
       <c r="S7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44872</v>
+        <v>44949</v>
       </c>
       <c r="T7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44873</v>
+        <v>44950</v>
       </c>
       <c r="U7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44951</v>
       </c>
       <c r="V7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="W7" s="115">
         <f ca="1">V7+1</f>
-        <v>44876</v>
+        <v>44953</v>
       </c>
       <c r="X7" s="115">
         <f ca="1">W7+1</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="Y7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="Z7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44879</v>
+        <v>44956</v>
       </c>
       <c r="AA7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44880</v>
+        <v>44957</v>
       </c>
       <c r="AB7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44958</v>
       </c>
       <c r="AC7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="AD7" s="115">
         <f ca="1">AC7+1</f>
-        <v>44883</v>
+        <v>44960</v>
       </c>
       <c r="AE7" s="115">
         <f ca="1">AD7+1</f>
-        <v>44884</v>
+        <v>44961</v>
       </c>
       <c r="AF7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44962</v>
       </c>
       <c r="AG7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44886</v>
+        <v>44963</v>
       </c>
       <c r="AH7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44887</v>
+        <v>44964</v>
       </c>
       <c r="AI7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44965</v>
       </c>
       <c r="AJ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44966</v>
       </c>
       <c r="AK7" s="115">
         <f ca="1">AJ7+1</f>
-        <v>44890</v>
+        <v>44967</v>
       </c>
       <c r="AL7" s="115">
         <f ca="1">AK7+1</f>
-        <v>44891</v>
+        <v>44968</v>
       </c>
       <c r="AM7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44969</v>
       </c>
       <c r="AN7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44893</v>
+        <v>44970</v>
       </c>
       <c r="AO7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44894</v>
+        <v>44971</v>
       </c>
       <c r="AP7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44972</v>
       </c>
       <c r="AQ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44973</v>
       </c>
       <c r="AR7" s="115">
         <f ca="1">AQ7+1</f>
-        <v>44897</v>
+        <v>44974</v>
       </c>
       <c r="AS7" s="115">
         <f ca="1">AR7+1</f>
-        <v>44898</v>
+        <v>44975</v>
       </c>
       <c r="AT7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="AU7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44900</v>
+        <v>44977</v>
       </c>
       <c r="AV7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44901</v>
+        <v>44978</v>
       </c>
       <c r="AW7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44902</v>
+        <v>44979</v>
       </c>
       <c r="AX7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44903</v>
+        <v>44980</v>
       </c>
       <c r="AY7" s="115">
         <f ca="1">AX7+1</f>
-        <v>44904</v>
+        <v>44981</v>
       </c>
       <c r="AZ7" s="115">
         <f ca="1">AY7+1</f>
-        <v>44905</v>
+        <v>44982</v>
       </c>
       <c r="BA7" s="115">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44906</v>
+        <v>44983</v>
       </c>
       <c r="BB7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44907</v>
+        <v>44984</v>
       </c>
       <c r="BC7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44908</v>
+        <v>44985</v>
       </c>
       <c r="BD7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44909</v>
+        <v>44986</v>
       </c>
       <c r="BE7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44910</v>
+        <v>44987</v>
       </c>
       <c r="BF7" s="115">
         <f ca="1">BE7+1</f>
-        <v>44911</v>
+        <v>44988</v>
       </c>
       <c r="BG7" s="115">
         <f ca="1">BF7+1</f>
-        <v>44912</v>
+        <v>44989</v>
       </c>
       <c r="BH7" s="115">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44913</v>
+        <v>44990</v>
       </c>
       <c r="BI7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44914</v>
+        <v>44991</v>
       </c>
       <c r="BJ7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44915</v>
+        <v>44992</v>
       </c>
       <c r="BK7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="BL7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44917</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -19079,7 +19074,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -19322,7 +19317,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44867</v>
+        <v>44944</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -19567,7 +19562,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44859</v>
+        <v>44936</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -19810,7 +19805,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44882</v>
+        <v>44959</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -20055,7 +20050,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -20536,7 +20531,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -20781,7 +20776,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44870</v>
+        <v>44947</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -21026,7 +21021,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44875</v>
+        <v>44952</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -21269,7 +21264,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -21510,7 +21505,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44878</v>
+        <v>44955</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -21989,7 +21984,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44877</v>
+        <v>44954</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -22232,7 +22227,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44880</v>
+        <v>44957</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -22475,7 +22470,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44895</v>
+        <v>44972</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -22718,7 +22713,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44899</v>
+        <v>44976</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -22961,7 +22956,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44868</v>
+        <v>44945</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -23438,7 +23433,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44902</v>
+        <v>44979</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -23679,7 +23674,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44916</v>
+        <v>44993</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -23922,7 +23917,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44958</v>
+        <v>45035</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -25000,25 +24995,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"目標,マイルストーン,順調, 低リスク, 中リスク, 高リスク"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="スクロールの増分" prompt="この番号を変更すると、ガント チャート ビューがスクロールされます。" sqref="C7" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="これは空の行です" sqref="A35" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行は、ガント マイルストーン データの末尾をマークします。この行には何も入力しないでください。_x000a_さらにアイテムを追加するには、この行の上に新しい行を挿入します。_x000a_" sqref="A36" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル B11 からセル G11 に、プロジェクト情報を入力します。_x000a_グラフの作成を開始するには、マイルストーンの説明を入力し、カテゴリを選択し、タスクにユーザーを割り当ててから、タスクの進捗状況、開始日、日数を入力します。_x000a_" sqref="A11" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロール バーはセル I8 から BL8 に表示されます。_x000a_タイムラインの前後にジャンプするには、セル C7 に 0 以上の値を入力します。_x000a_値を 0 にすると、グラフの先頭に移動します。" sqref="A8" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="セル I9 から BL9 には、各日付のセルの上にあるセル ブロック内に表示される月に対応するその月の日付の数字が含まれており、自動的に計算が行われます。_x000a_これらのセルは変更しないでください。_x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="スクロールの増分はセル C7 に表示されます。_x000a_行 7 の日付に対応する月が、セル I6 からセル BL6 に表示されます。_x000a_これらのセルは変更しないでください。これらのセルは、セル F6 プロジェクトの開始日に基づいて自動的に更新されます。" sqref="A6" xr:uid="{00000000-0002-0000-0300-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ガント チャートを作成する " prompt="セル B2 にこのプロジェクトのタイトルを入力します。_x000a_このワークシートの使い方 (スクリーン リーダーの説明やこのブックの作成者など) は、[詳細情報] ワークシートで確認できます。_x000a_列 A を下方に移動しながら、詳細な説明を確認できます。" sqref="A2" xr:uid="{00000000-0002-0000-0300-00000C000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -25131,34 +25126,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25434,27 +25401,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25473,4 +25448,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>